--- a/laravel/public_html/media/users/users.xlsx
+++ b/laravel/public_html/media/users/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Ghadir\laravel\public_html\media\users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CBB5C8-3237-464B-A87D-190A593C4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D57F3A-4AE4-4668-90AF-AEEF9256F736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B429E45-8C54-4AEB-B120-5F8D9D7BE356}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
